--- a/cs401/projects/attendance-report/src/main/resources/BaseData.xlsx
+++ b/cs401/projects/attendance-report/src/main/resources/BaseData.xlsx
@@ -44906,8 +44906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45437,7 +45437,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -45457,7 +45457,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -45477,7 +45477,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -45497,7 +45497,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -45517,7 +45517,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -45537,7 +45537,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -45557,7 +45557,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -45577,7 +45577,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -45597,7 +45597,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -45617,7 +45617,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
